--- a/biology/Médecine/FGF19/FGF19.xlsx
+++ b/biology/Médecine/FGF19/FGF19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">FGF19 (pour « Fibroblast growth factor 19 ») est une protéine appartenant à la famille des facteurs de croissances des fibroblastes. Son gène est FGF11 situé sur le chromosome 11 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son expression est augmenté par le récepteur farnésoïde X (FXR), lui-même stimulé par les sels biliaires, ce qui a pour conséquence d'inhiber la néoglucogenèse et la synthèse des sels biliaires et d'activer la synthèse protéique et du glycogène[5]. Il joue également sur le métabolisme lipidique et du calcium[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son expression est augmenté par le récepteur farnésoïde X (FXR), lui-même stimulé par les sels biliaires, ce qui a pour conséquence d'inhiber la néoglucogenèse et la synthèse des sels biliaires et d'activer la synthèse protéique et du glycogène. Il joue également sur le métabolisme lipidique et du calcium.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un taux sérique bas est en rapport avec des formes plus graves de stéatose hépatique non alcoolique[7].
-Sur un modèle animal, il semble favoriser la formation d'un carcinome hépatocellulaire[8].
-Un analogue de la molécule a été développé, sans activité d'oncogenèse[9]. Il semble être prometteur dans le traitement de la stéatose hépatique non alcoolique, diminuant le contenu en lipides des cellules hépatiques[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un taux sérique bas est en rapport avec des formes plus graves de stéatose hépatique non alcoolique.
+Sur un modèle animal, il semble favoriser la formation d'un carcinome hépatocellulaire.
+Un analogue de la molécule a été développé, sans activité d'oncogenèse. Il semble être prometteur dans le traitement de la stéatose hépatique non alcoolique, diminuant le contenu en lipides des cellules hépatiques.
 </t>
         </is>
       </c>
